--- a/data/Fall2018/db1-7_all-timepoints-runs/db2/14-gene_25-edges_db2_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
+++ b/data/Fall2018/db1-7_all-timepoints-runs/db2/14-gene_25-edges_db2_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
   <si>
     <t>cols regulators/rows targets</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>dgln3</t>
-  </si>
-  <si>
-    <t>dhap4</t>
   </si>
   <si>
     <t>dhmo1</t>
@@ -734,10 +731,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -870,10 +867,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1006,10 +1003,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8">
         <v>15</v>
@@ -2285,7 +2282,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8">
         <v>15</v>
@@ -2363,10 +2360,10 @@
         <v>-0.1191</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="H2" s="4">
         <v>-7.5700000000000003E-2</v>
@@ -2397,7 +2394,7 @@
         <v>0.55030000000000001</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="4">
@@ -2415,7 +2412,7 @@
         <v>-0.3155</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4">
         <v>-0.80289999999999995</v>
@@ -2424,10 +2421,10 @@
         <v>0.5141</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="4">
         <v>0.50960000000000005</v>
@@ -2460,7 +2457,7 @@
         <v>-0.5786</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3" s="4">
         <v>0.78710000000000002</v>
@@ -2480,7 +2477,7 @@
         <v>0.96209999999999996</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4">
         <v>0.31009999999999999</v>
@@ -2489,10 +2486,10 @@
         <v>-0.15890000000000001</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="H4" s="4">
         <v>0.48599999999999999</v>
@@ -2525,7 +2522,7 @@
         <v>-2.6499999999999999E-2</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S4" s="4">
         <v>-1.0232000000000001</v>
@@ -2545,7 +2542,7 @@
         <v>6.3299999999999995E-2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4">
         <v>-1.9531000000000001</v>
@@ -2554,10 +2551,10 @@
         <v>-0.21510000000000001</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H5" s="4">
         <v>-2.2646000000000002</v>
@@ -2590,7 +2587,7 @@
         <v>-1.2024999999999999</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S5" s="4">
         <v>1.1213</v>
@@ -2610,7 +2607,7 @@
         <v>-0.91690000000000005</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4">
         <v>0.42699999999999999</v>
@@ -2619,10 +2616,10 @@
         <v>-7.1199999999999999E-2</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="4">
         <v>0.39100000000000001</v>
@@ -2655,7 +2652,7 @@
         <v>1.099</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S6" s="4">
         <v>-1.8355999999999999</v>
@@ -2675,7 +2672,7 @@
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4">
         <v>0.29420000000000002</v>
@@ -2684,10 +2681,10 @@
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H7" s="4">
         <v>0.33739999999999998</v>
@@ -2718,7 +2715,7 @@
         <v>-0.36409999999999998</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S7" s="4">
         <v>-0.1216</v>
@@ -2736,7 +2733,7 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="4">
         <v>0.24909999999999999</v>
@@ -2745,10 +2742,10 @@
         <v>0.90359999999999996</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="4">
         <v>-9.9699999999999997E-2</v>
@@ -2781,7 +2778,7 @@
         <v>0.41470000000000001</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S8" s="4">
         <v>-0.1053</v>
@@ -2801,7 +2798,7 @@
         <v>0.58789999999999998</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4">
         <v>0.36570000000000003</v>
@@ -2810,10 +2807,10 @@
         <v>0.68759999999999999</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="H9" s="4">
         <v>0.30730000000000002</v>
@@ -2846,7 +2843,7 @@
         <v>-0.28460000000000002</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S9" s="4">
         <v>1.3992</v>
@@ -2866,7 +2863,7 @@
         <v>1.0931999999999999</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4">
         <v>1.1254999999999999</v>
@@ -2875,10 +2872,10 @@
         <v>0.62629999999999997</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="H10" s="4">
         <v>1.6525000000000001</v>
@@ -2911,7 +2908,7 @@
         <v>-0.1474</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S10" s="4">
         <v>3.78E-2</v>
@@ -2931,7 +2928,7 @@
         <v>1.2589999999999999</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="4">
         <v>0.91600000000000004</v>
@@ -2940,10 +2937,10 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="H11" s="4">
         <v>0.56589999999999996</v>
@@ -2976,7 +2973,7 @@
         <v>1.3001</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S11" s="4">
         <v>-0.24709999999999999</v>
@@ -3003,10 +3000,10 @@
         <v>-0.54890000000000005</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="H12" s="4">
         <v>2.5700000000000001E-2</v>
@@ -3039,7 +3036,7 @@
         <v>-7.9000000000000008E-3</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S12" s="4">
         <v>0.57050000000000001</v>
@@ -3059,7 +3056,7 @@
         <v>-0.1331</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4">
         <v>-0.32140000000000002</v>
@@ -3068,10 +3065,10 @@
         <v>-1.8200000000000001E-2</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H13" s="4">
         <v>0.22489999999999999</v>
@@ -3104,7 +3101,7 @@
         <v>1.0215000000000001</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S13" s="4">
         <v>-0.61909999999999998</v>
@@ -3124,7 +3121,7 @@
         <v>-1.2421</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4">
         <v>-0.73499999999999999</v>
@@ -3133,10 +3130,10 @@
         <v>0.29349999999999998</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="H14" s="4">
         <v>1.0021</v>
@@ -3169,7 +3166,7 @@
         <v>-2.1100000000000001E-2</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S14" s="4">
         <v>0.77529999999999999</v>
@@ -3189,7 +3186,7 @@
         <v>-1.3433999999999999</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4">
         <v>-1.7083999999999999</v>
@@ -3198,10 +3195,10 @@
         <v>-0.28220000000000001</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H15" s="4">
         <v>-0.11550000000000001</v>
@@ -3234,7 +3231,7 @@
         <v>1.3318000000000001</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S15" s="4">
         <v>-0.67410000000000003</v>
@@ -3266,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8">
         <v>15</v>
@@ -3382,7 +3379,7 @@
         <v>2.3325</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S2" s="4">
         <v>1.7847999999999999</v>
@@ -3445,7 +3442,7 @@
         <v>-0.92279999999999995</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S3" s="4">
         <v>-0.33929999999999999</v>
@@ -3510,7 +3507,7 @@
         <v>0.48330000000000001</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S4" s="4">
         <v>3.3700000000000001E-2</v>
@@ -3575,7 +3572,7 @@
         <v>-0.86240000000000006</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S5" s="4">
         <v>1.0261</v>
@@ -3640,7 +3637,7 @@
         <v>2.133</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S6" s="4">
         <v>-2.0594999999999999</v>
@@ -3705,7 +3702,7 @@
         <v>-2.5100000000000001E-2</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S7" s="4">
         <v>0.24010000000000001</v>
@@ -3768,7 +3765,7 @@
         <v>2.1431</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S8" s="4">
         <v>-0.41870000000000002</v>
@@ -3833,7 +3830,7 @@
         <v>-0.3024</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S9" s="4">
         <v>0.442</v>
@@ -3898,7 +3895,7 @@
         <v>1.2373000000000001</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S10" s="4">
         <v>-0.53249999999999997</v>
@@ -3961,7 +3958,7 @@
         <v>-0.86599999999999999</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S11" s="4">
         <v>-0.92359999999999998</v>
@@ -4026,7 +4023,7 @@
         <v>0.21049999999999999</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S12" s="4">
         <v>-0.45090000000000002</v>
@@ -4089,7 +4086,7 @@
         <v>0.62970000000000004</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S13" s="4">
         <v>0.29920000000000002</v>
@@ -4154,7 +4151,7 @@
         <v>0.2349</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S14" s="4">
         <v>-0.28249999999999997</v>
@@ -4217,7 +4214,7 @@
         <v>3.3220000000000001</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S15" s="4">
         <v>1.9711000000000001</v>
@@ -4249,7 +4246,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8">
         <v>15</v>
@@ -6723,7 +6720,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -6731,7 +6728,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -6791,13 +6788,10 @@
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>

--- a/data/Fall2018/db1-7_all-timepoints-runs/db2/14-gene_25-edges_db2_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
+++ b/data/Fall2018/db1-7_all-timepoints-runs/db2/14-gene_25-edges_db2_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
@@ -6642,7 +6642,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6654,7 +6654,7 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -6771,8 +6771,14 @@
       <c r="D14" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="3">
+        <v>90</v>
+      </c>
+      <c r="F14" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -6831,6 +6837,42 @@
       </c>
       <c r="N16" s="3">
         <v>60</v>
+      </c>
+      <c r="O16" s="3">
+        <v>65</v>
+      </c>
+      <c r="P16" s="3">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>75</v>
+      </c>
+      <c r="R16" s="3">
+        <v>80</v>
+      </c>
+      <c r="S16" s="3">
+        <v>85</v>
+      </c>
+      <c r="T16" s="3">
+        <v>90</v>
+      </c>
+      <c r="U16" s="3">
+        <v>95</v>
+      </c>
+      <c r="V16" s="3">
+        <v>100</v>
+      </c>
+      <c r="W16" s="3">
+        <v>105</v>
+      </c>
+      <c r="X16" s="3">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>115</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
